--- a/pokemon v2 main/moves.xlsx
+++ b/pokemon v2 main/moves.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chitrkash\Python Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\Pokemon-Smit_and_Chitraksh\pokemon v2 main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83CF3388-CE38-4C72-AF45-88118FA2292B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{12CCBDA9-715F-48DC-AFA4-F6FFA4305B8C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Damage</t>
   </si>
@@ -106,12 +105,21 @@
   </si>
   <si>
     <t>Turn</t>
+  </si>
+  <si>
+    <t>Iron Tail</t>
+  </si>
+  <si>
+    <t>Crunch</t>
+  </si>
+  <si>
+    <t>Stone Edge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -456,20 +464,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1637F90C-E52A-49DB-AB4C-459B4A47C45D}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="16.85546875" customWidth="1"/>
+    <col min="1" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -492,89 +500,104 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
